--- a/Analisis extrapolación.xlsx
+++ b/Analisis extrapolación.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Python_script\Github\IBNR-NIIF-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EBDC19E-C996-4A32-A25D-62FAEAC5A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA08026-28B3-4703-9BEE-7A96715F082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC Cosas" sheetId="1" r:id="rId1"/>
     <sheet name="RC Transportados" sheetId="2" r:id="rId2"/>
     <sheet name="RC No Transportados" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1826,7 +1822,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'RC Transportados'!$E$1</c15:sqref>
@@ -1855,7 +1851,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'RC Transportados'!$E$2:$E$22</c15:sqref>
@@ -2847,7 +2843,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'RC No Transportados'!$G$1</c15:sqref>
@@ -2876,7 +2872,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'RC No Transportados'!$G$2:$G$22</c15:sqref>
@@ -4913,896 +4909,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="RC Transportados"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Inverse Power_2019</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Exponential_2019</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Inverse Power_2024</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Exponential_2024</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Inverse Power_2021</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Exponential_2021</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Inverse Power_2020</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Exponential_2020</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.6060010357993311</v>
-          </cell>
-          <cell r="C2">
-            <v>1.6060010357993311</v>
-          </cell>
-          <cell r="D2">
-            <v>1.5914467888951489</v>
-          </cell>
-          <cell r="E2">
-            <v>1.5914467888951489</v>
-          </cell>
-          <cell r="F2">
-            <v>1.675423507359747</v>
-          </cell>
-          <cell r="G2">
-            <v>1.675423507359747</v>
-          </cell>
-          <cell r="H2">
-            <v>1.668548223800395</v>
-          </cell>
-          <cell r="I2">
-            <v>1.668548223800395</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.188351816087768</v>
-          </cell>
-          <cell r="C3">
-            <v>1.188351816087768</v>
-          </cell>
-          <cell r="D3">
-            <v>1.233265946646888</v>
-          </cell>
-          <cell r="E3">
-            <v>1.233265946646888</v>
-          </cell>
-          <cell r="F3">
-            <v>1.2788892702643979</v>
-          </cell>
-          <cell r="G3">
-            <v>1.2788892702643979</v>
-          </cell>
-          <cell r="H3">
-            <v>1.2735402547390839</v>
-          </cell>
-          <cell r="I3">
-            <v>1.2735402547390839</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1.135266667534125</v>
-          </cell>
-          <cell r="C4">
-            <v>1.135266667534125</v>
-          </cell>
-          <cell r="D4">
-            <v>1.124119859086715</v>
-          </cell>
-          <cell r="E4">
-            <v>1.124119859086715</v>
-          </cell>
-          <cell r="F4">
-            <v>1.1778819796102971</v>
-          </cell>
-          <cell r="G4">
-            <v>1.1778819796102971</v>
-          </cell>
-          <cell r="H4">
-            <v>1.179312119208709</v>
-          </cell>
-          <cell r="I4">
-            <v>1.179312119208709</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1.077603835462315</v>
-          </cell>
-          <cell r="C5">
-            <v>1.077603835462315</v>
-          </cell>
-          <cell r="D5">
-            <v>1.1017671021220901</v>
-          </cell>
-          <cell r="E5">
-            <v>1.1017671021220901</v>
-          </cell>
-          <cell r="F5">
-            <v>1.1039952405664111</v>
-          </cell>
-          <cell r="G5">
-            <v>1.1039952405664111</v>
-          </cell>
-          <cell r="H5">
-            <v>1.1045988283147921</v>
-          </cell>
-          <cell r="I5">
-            <v>1.1045988283147921</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1.0555490097212761</v>
-          </cell>
-          <cell r="C6">
-            <v>1.0555490097212761</v>
-          </cell>
-          <cell r="D6">
-            <v>1.072111219244817</v>
-          </cell>
-          <cell r="E6">
-            <v>1.072111219244817</v>
-          </cell>
-          <cell r="F6">
-            <v>1.076087719676319</v>
-          </cell>
-          <cell r="G6">
-            <v>1.076087719676319</v>
-          </cell>
-          <cell r="H6">
-            <v>1.0846229919525989</v>
-          </cell>
-          <cell r="I6">
-            <v>1.0846229919525989</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.0552578411575131</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0552578411575131</v>
-          </cell>
-          <cell r="D7">
-            <v>1.0560605934912091</v>
-          </cell>
-          <cell r="E7">
-            <v>1.03659509037426</v>
-          </cell>
-          <cell r="F7">
-            <v>1.061364165993206</v>
-          </cell>
-          <cell r="G7">
-            <v>1.061364165993206</v>
-          </cell>
-          <cell r="H7">
-            <v>1.060609712009257</v>
-          </cell>
-          <cell r="I7">
-            <v>1.060609712009257</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.0446090890117481</v>
-          </cell>
-          <cell r="C8">
-            <v>1.0446090890117481</v>
-          </cell>
-          <cell r="D8">
-            <v>1.045876919534547</v>
-          </cell>
-          <cell r="E8">
-            <v>1.0221113807271021</v>
-          </cell>
-          <cell r="F8">
-            <v>1.036455348170586</v>
-          </cell>
-          <cell r="G8">
-            <v>1.036455348170586</v>
-          </cell>
-          <cell r="H8">
-            <v>1.0329693504605431</v>
-          </cell>
-          <cell r="I8">
-            <v>1.0329693504605431</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.0311829943683939</v>
-          </cell>
-          <cell r="C9">
-            <v>1.0311829943683939</v>
-          </cell>
-          <cell r="D9">
-            <v>1.038563501913297</v>
-          </cell>
-          <cell r="E9">
-            <v>1.013360075153763</v>
-          </cell>
-          <cell r="F9">
-            <v>1.036395174934402</v>
-          </cell>
-          <cell r="G9">
-            <v>1.036395174934402</v>
-          </cell>
-          <cell r="H9">
-            <v>1.033125832372237</v>
-          </cell>
-          <cell r="I9">
-            <v>1.033125832372237</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1.026007419999434</v>
-          </cell>
-          <cell r="C10">
-            <v>1.026007419999434</v>
-          </cell>
-          <cell r="D10">
-            <v>1.033086685609208</v>
-          </cell>
-          <cell r="E10">
-            <v>1.008072386356923</v>
-          </cell>
-          <cell r="F10">
-            <v>1.023168608138574</v>
-          </cell>
-          <cell r="G10">
-            <v>1.023168608138574</v>
-          </cell>
-          <cell r="H10">
-            <v>1.010576254533655</v>
-          </cell>
-          <cell r="I10">
-            <v>1.010576254533655</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1.0336565696162701</v>
-          </cell>
-          <cell r="C11">
-            <v>1.0336565696162701</v>
-          </cell>
-          <cell r="D11">
-            <v>1.028850027704256</v>
-          </cell>
-          <cell r="E11">
-            <v>1.0048774741717741</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.061186133108849</v>
-          </cell>
-          <cell r="C12">
-            <v>1.061186133108849</v>
-          </cell>
-          <cell r="D12">
-            <v>1.0254868156593779</v>
-          </cell>
-          <cell r="E12">
-            <v>1.002947053478916</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.0075449328931181</v>
-          </cell>
-          <cell r="C13">
-            <v>1.0075449328931181</v>
-          </cell>
-          <cell r="D13">
-            <v>1.022759988511279</v>
-          </cell>
-          <cell r="E13">
-            <v>1.001780660215045</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1.0212746516243609</v>
-          </cell>
-          <cell r="C14">
-            <v>1.0212746516243609</v>
-          </cell>
-          <cell r="D14">
-            <v>1.0205099388095691</v>
-          </cell>
-          <cell r="E14">
-            <v>1.0010759054167599</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1.016101314208159</v>
-          </cell>
-          <cell r="C15">
-            <v>1.016101314208159</v>
-          </cell>
-          <cell r="D15">
-            <v>1.018625528138636</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0006500804903891</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.0303822064058119</v>
-          </cell>
-          <cell r="C16">
-            <v>1.0303822064058119</v>
-          </cell>
-          <cell r="D16">
-            <v>1.017027143970878</v>
-          </cell>
-          <cell r="E16">
-            <v>1.0003927897725959</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1.0110116977233909</v>
-          </cell>
-          <cell r="C17">
-            <v>1.0110116977233909</v>
-          </cell>
-          <cell r="D17">
-            <v>1.015656360481431</v>
-          </cell>
-          <cell r="E17">
-            <v>1.0002373303117651</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.0038002610041821</v>
-          </cell>
-          <cell r="C18">
-            <v>1.0038002610041821</v>
-          </cell>
-          <cell r="D18">
-            <v>1.0144693947375969</v>
-          </cell>
-          <cell r="E18">
-            <v>1.0001433990414521</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1.0039250612639641</v>
-          </cell>
-          <cell r="C19">
-            <v>1.0039250612639641</v>
-          </cell>
-          <cell r="D19">
-            <v>1.013432832894642</v>
-          </cell>
-          <cell r="E19">
-            <v>1.000086644158247</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.008871755577458</v>
-          </cell>
-          <cell r="C20">
-            <v>1.008871755577458</v>
-          </cell>
-          <cell r="D20">
-            <v>1.012520761637927</v>
-          </cell>
-          <cell r="E20">
-            <v>1.0000523518852169</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.9974904414134349</v>
-          </cell>
-          <cell r="C21">
-            <v>0.9974904414134349</v>
-          </cell>
-          <cell r="D21">
-            <v>1.011712796069522</v>
-          </cell>
-          <cell r="E21">
-            <v>1.0000316319061919</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.0002025514095929</v>
-          </cell>
-          <cell r="C22">
-            <v>1.0002025514095929</v>
-          </cell>
-          <cell r="D22">
-            <v>1.010992694787028</v>
-          </cell>
-          <cell r="E22">
-            <v>1.000019112539791</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="RC No Transportados"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Inverse Power_2024</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Exponential_2024</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Inverse Power_2019</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Exponential_2019</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Inverse Power_2021</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>Exponential_2021</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Inverse Power_2020</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>Exponential_2020</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.6602095656374369</v>
-          </cell>
-          <cell r="C2">
-            <v>1.6602095656374369</v>
-          </cell>
-          <cell r="D2">
-            <v>1.5785959854356251</v>
-          </cell>
-          <cell r="E2">
-            <v>1.5785959854356251</v>
-          </cell>
-          <cell r="F2">
-            <v>1.602424331956398</v>
-          </cell>
-          <cell r="G2">
-            <v>1.602424331956398</v>
-          </cell>
-          <cell r="H2">
-            <v>1.6011709612041889</v>
-          </cell>
-          <cell r="I2">
-            <v>1.6011709612041889</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.253708667674079</v>
-          </cell>
-          <cell r="C3">
-            <v>1.253708667674079</v>
-          </cell>
-          <cell r="D3">
-            <v>1.1638248037827861</v>
-          </cell>
-          <cell r="E3">
-            <v>1.1638248037827861</v>
-          </cell>
-          <cell r="F3">
-            <v>1.238822408830655</v>
-          </cell>
-          <cell r="G3">
-            <v>1.238822408830655</v>
-          </cell>
-          <cell r="H3">
-            <v>1.225308818156011</v>
-          </cell>
-          <cell r="I3">
-            <v>1.225308818156011</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1.1491492723492021</v>
-          </cell>
-          <cell r="C4">
-            <v>1.1491492723492021</v>
-          </cell>
-          <cell r="D4">
-            <v>1.1116394735040771</v>
-          </cell>
-          <cell r="E4">
-            <v>1.1116394735040771</v>
-          </cell>
-          <cell r="F4">
-            <v>1.1503535132108691</v>
-          </cell>
-          <cell r="G4">
-            <v>1.1503535132108691</v>
-          </cell>
-          <cell r="H4">
-            <v>1.1491316595469441</v>
-          </cell>
-          <cell r="I4">
-            <v>1.1491316595469441</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1.085878145451205</v>
-          </cell>
-          <cell r="C5">
-            <v>1.085878145451205</v>
-          </cell>
-          <cell r="D5">
-            <v>1.072295947845054</v>
-          </cell>
-          <cell r="E5">
-            <v>1.072295947845054</v>
-          </cell>
-          <cell r="F5">
-            <v>1.0950676649571609</v>
-          </cell>
-          <cell r="G5">
-            <v>1.0950676649571609</v>
-          </cell>
-          <cell r="H5">
-            <v>1.0966806124729289</v>
-          </cell>
-          <cell r="I5">
-            <v>1.0966806124729289</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1.0626445243659079</v>
-          </cell>
-          <cell r="C6">
-            <v>1.0626445243659079</v>
-          </cell>
-          <cell r="D6">
-            <v>1.0560137986034801</v>
-          </cell>
-          <cell r="E6">
-            <v>1.0560137986034801</v>
-          </cell>
-          <cell r="F6">
-            <v>1.059360371139709</v>
-          </cell>
-          <cell r="G6">
-            <v>1.059360371139709</v>
-          </cell>
-          <cell r="H6">
-            <v>1.068923981780709</v>
-          </cell>
-          <cell r="I6">
-            <v>1.068923981780709</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.0495229774166011</v>
-          </cell>
-          <cell r="C7">
-            <v>1.0295709851981729</v>
-          </cell>
-          <cell r="D7">
-            <v>1.0456655983464089</v>
-          </cell>
-          <cell r="E7">
-            <v>1.0456655983464089</v>
-          </cell>
-          <cell r="F7">
-            <v>1.044640221163754</v>
-          </cell>
-          <cell r="G7">
-            <v>1.044640221163754</v>
-          </cell>
-          <cell r="H7">
-            <v>1.04518920163101</v>
-          </cell>
-          <cell r="I7">
-            <v>1.04518920163101</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.0395106743021389</v>
-          </cell>
-          <cell r="C8">
-            <v>1.0165676453686661</v>
-          </cell>
-          <cell r="D8">
-            <v>1.0358525381127279</v>
-          </cell>
-          <cell r="E8">
-            <v>1.0358525381127279</v>
-          </cell>
-          <cell r="F8">
-            <v>1.0328099921921221</v>
-          </cell>
-          <cell r="G8">
-            <v>1.0328099921921221</v>
-          </cell>
-          <cell r="H8">
-            <v>1.034791017352789</v>
-          </cell>
-          <cell r="I8">
-            <v>1.034791017352789</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.032489499510775</v>
-          </cell>
-          <cell r="C9">
-            <v>1.0092823039618859</v>
-          </cell>
-          <cell r="D9">
-            <v>1.0302587873258291</v>
-          </cell>
-          <cell r="E9">
-            <v>1.0302587873258291</v>
-          </cell>
-          <cell r="F9">
-            <v>1.0226255352480891</v>
-          </cell>
-          <cell r="G9">
-            <v>1.0226255352480891</v>
-          </cell>
-          <cell r="H9">
-            <v>1.0301775421964341</v>
-          </cell>
-          <cell r="I9">
-            <v>1.0301775421964341</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1.027339647878529</v>
-          </cell>
-          <cell r="C10">
-            <v>1.0052005680302529</v>
-          </cell>
-          <cell r="D10">
-            <v>1.021638823698134</v>
-          </cell>
-          <cell r="E10">
-            <v>1.021638823698134</v>
-          </cell>
-          <cell r="F10">
-            <v>1.0193352739837711</v>
-          </cell>
-          <cell r="G10">
-            <v>1.0193352739837711</v>
-          </cell>
-          <cell r="H10">
-            <v>1.011480367824183</v>
-          </cell>
-          <cell r="I10">
-            <v>1.011480367824183</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1.023428676928561</v>
-          </cell>
-          <cell r="C11">
-            <v>1.002913706332861</v>
-          </cell>
-          <cell r="D11">
-            <v>1.025553030272021</v>
-          </cell>
-          <cell r="E11">
-            <v>1.025553030272021</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.0203750200776289</v>
-          </cell>
-          <cell r="C12">
-            <v>1.001632453329091</v>
-          </cell>
-          <cell r="D12">
-            <v>1.0144586302563141</v>
-          </cell>
-          <cell r="E12">
-            <v>1.0144586302563141</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.017936148485217</v>
-          </cell>
-          <cell r="C13">
-            <v>1.0009146096302179</v>
-          </cell>
-          <cell r="D13">
-            <v>1.009051672051964</v>
-          </cell>
-          <cell r="E13">
-            <v>1.009051672051964</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1.0159512522032561</v>
-          </cell>
-          <cell r="C14">
-            <v>1.0005124255381641</v>
-          </cell>
-          <cell r="D14">
-            <v>1.009866985370208</v>
-          </cell>
-          <cell r="E14">
-            <v>1.009866985370208</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1.014309909419878</v>
-          </cell>
-          <cell r="C15">
-            <v>1.0002870950878791</v>
-          </cell>
-          <cell r="D15">
-            <v>1.0061348947712481</v>
-          </cell>
-          <cell r="E15">
-            <v>1.0061348947712481</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.01293403205745</v>
-          </cell>
-          <cell r="C16">
-            <v>1.00016084988617</v>
-          </cell>
-          <cell r="D16">
-            <v>1.0054561401344431</v>
-          </cell>
-          <cell r="E16">
-            <v>1.0054561401344431</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1.0117669921687771</v>
-          </cell>
-          <cell r="C17">
-            <v>1.000090118873409</v>
-          </cell>
-          <cell r="D17">
-            <v>1.0044881595328099</v>
-          </cell>
-          <cell r="E17">
-            <v>1.0044881595328099</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.010766822863975</v>
-          </cell>
-          <cell r="C18">
-            <v>1.0000504906253771</v>
-          </cell>
-          <cell r="D18">
-            <v>1.0051962940571011</v>
-          </cell>
-          <cell r="E18">
-            <v>1.0051962940571011</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1.0099018275851579</v>
-          </cell>
-          <cell r="C19">
-            <v>1.000028288228143</v>
-          </cell>
-          <cell r="D19">
-            <v>1.002765369127363</v>
-          </cell>
-          <cell r="E19">
-            <v>1.002765369127363</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.009147663962694</v>
-          </cell>
-          <cell r="C20">
-            <v>1.000015848958999</v>
-          </cell>
-          <cell r="D20">
-            <v>1.002455256359907</v>
-          </cell>
-          <cell r="E20">
-            <v>1.002455256359907</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1.008485358718799</v>
-          </cell>
-          <cell r="C21">
-            <v>1.0000088796477491</v>
-          </cell>
-          <cell r="D21">
-            <v>1.0004415013411201</v>
-          </cell>
-          <cell r="E21">
-            <v>1.0004415013411201</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.007899926561806</v>
-          </cell>
-          <cell r="C22">
-            <v>1.000004974973066</v>
-          </cell>
-          <cell r="D22">
-            <v>1.0004316435692859</v>
-          </cell>
-          <cell r="E22">
-            <v>1.0004316435692859</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -6092,20 +5198,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6131,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6168,7 +5279,7 @@
         <v>2.6558660610914546E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6205,7 +5316,7 @@
         <v>1.2718984599988008E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6242,7 +5353,7 @@
         <v>1.9438111014971843E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6279,7 +5390,7 @@
         <v>2.0383387632102331E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6316,7 +5427,7 @@
         <v>4.1919629902920422E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6353,7 +5464,7 @@
         <v>1.0590825054618728E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6390,7 +5501,7 @@
         <v>3.9201422419169684E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6427,7 +5538,7 @@
         <v>3.1801853804437974E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6464,7 +5575,7 @@
         <v>5.4126622624067448E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6489,7 +5600,7 @@
         <v>6.7015060599558406E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6514,7 +5625,7 @@
         <v>1.05360928259291E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6539,7 +5650,7 @@
         <v>6.251984448285143E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6564,7 +5675,7 @@
         <v>1.8456267677221274E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6589,7 +5700,7 @@
         <v>8.0503896515227526E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6614,7 +5725,7 @@
         <v>1.9640183709192645E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6639,7 +5750,7 @@
         <v>2.8608225402741581E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6664,7 +5775,7 @@
         <v>2.5078452509974986E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6689,7 +5800,7 @@
         <v>1.8068376166428319E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6714,7 +5825,7 @@
         <v>8.1308387585137921E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6739,7 +5850,7 @@
         <v>1.2551740722488897E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6764,7 +5875,7 @@
         <v>1.4143093929138413E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6775,7 +5886,7 @@
         <v>1.0000000419166759</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6789,15 +5900,15 @@
         <v>9</v>
       </c>
       <c r="J24">
-        <f>SUM(J2:J22)</f>
-        <v>1.9470127533325135E-3</v>
+        <f>SUM(J7:J22)</f>
+        <v>1.5284355953982607E-4</v>
       </c>
       <c r="K24">
-        <f>SUM(K2:K22)</f>
-        <v>2.0982141414275725E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f>SUM(K7:K22)</f>
+        <v>3.0404494763488517E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6812,14 +5923,14 @@
       </c>
       <c r="J25">
         <f>SQRT(J24)</f>
-        <v>4.4124967459846509E-2</v>
+        <v>1.236299152874522E-2</v>
       </c>
       <c r="K25">
         <f>SQRT(K24)</f>
-        <v>4.5806267490678308E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.7436884688352021E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6830,7 +5941,7 @@
         <v>1.000000005047633</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6841,7 +5952,7 @@
         <v>1.000000002492613</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6852,7 +5963,7 @@
         <v>1.0000000012308969</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6863,7 +5974,7 @@
         <v>1.0000000006078389</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6874,7 +5985,7 @@
         <v>1.0000000003001619</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6885,7 +5996,7 @@
         <v>1.000000000148225</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6896,7 +6007,7 @@
         <v>1.0000000000731959</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6907,7 +6018,7 @@
         <v>1.000000000036146</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6918,7 +6029,7 @@
         <v>1.0000000000178491</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6929,7 +6040,7 @@
         <v>1.0000000000088141</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6940,7 +6051,7 @@
         <v>1.000000000004353</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6951,7 +6062,7 @@
         <v>1.0000000000021489</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6962,7 +6073,7 @@
         <v>1.0000000000010609</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6973,7 +6084,7 @@
         <v>1.000000000000524</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6984,7 +6095,7 @@
         <v>1.0000000000002589</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6995,7 +6106,7 @@
         <v>1.0000000000001279</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7006,7 +6117,7 @@
         <v>1.0000000000000631</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7017,7 +6128,7 @@
         <v>1.0000000000000311</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7028,7 +6139,7 @@
         <v>1.0000000000000151</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7039,7 +6150,7 @@
         <v>1.000000000000008</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7050,7 +6161,7 @@
         <v>1.000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7061,7 +6172,7 @@
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7072,7 +6183,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7083,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7094,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7105,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7116,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7127,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7138,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7149,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7160,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7171,7 +6282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7182,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7193,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7204,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7215,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7226,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7237,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7248,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7259,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7270,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7281,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7292,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7303,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7314,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7325,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7336,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7347,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7358,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7369,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7380,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7391,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7402,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7413,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7424,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7435,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7446,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7457,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7468,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7479,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7490,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7501,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7512,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7523,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7534,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7545,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7556,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7567,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7578,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7589,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7600,7 +6711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7611,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7622,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7633,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7644,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7655,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7666,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7677,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7688,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7699,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7710,82 +6821,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7800,24 +6911,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12084E6B-ED10-419E-8AF8-76B61C618EAB}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7843,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7880,7 +6991,7 @@
         <v>2.1182610294789617E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7917,7 +7028,7 @@
         <v>2.0172791238816843E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7954,7 +7065,7 @@
         <v>1.2425133856325106E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7991,7 +7102,7 @@
         <v>5.8386345567139819E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8028,7 +7139,7 @@
         <v>2.7430678430166976E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8065,7 +7176,7 @@
         <v>3.4829826679781342E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8102,7 +7213,7 @@
         <v>5.0614687806103075E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8139,7 +7250,7 @@
         <v>3.1765644933125795E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8176,7 +7287,7 @@
         <v>3.2166543175800256E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8201,7 +7312,7 @@
         <v>8.2823633460340888E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8226,7 +7337,7 @@
         <v>3.3917903961416794E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8251,7 +7362,7 @@
         <v>3.3226839507180173E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8276,7 +7387,7 @@
         <v>4.0798934835907503E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8301,7 +7412,7 @@
         <v>2.3874062340114969E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8326,7 +7437,7 @@
         <v>8.9936511000061068E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8351,7 +7462,7 @@
         <v>1.1608699312070515E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8376,7 +7487,7 @@
         <v>1.3372639414461234E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8401,7 +7512,7 @@
         <v>1.473344587746152E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8426,7 +7537,7 @@
         <v>7.778188148671597E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8451,7 +7562,7 @@
         <v>6.4576491204787084E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8476,7 +7587,7 @@
         <v>3.3649818954190128E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8487,7 +7598,7 @@
         <v>1.0000115481240699</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8501,15 +7612,15 @@
         <v>9</v>
       </c>
       <c r="J24">
-        <f>SUM(J2:J22)</f>
-        <v>5.5905415068114974E-3</v>
+        <f>SUM(J7:J22)</f>
+        <v>2.3790147014455974E-3</v>
       </c>
       <c r="K24">
-        <f>SUM(K2:K22)</f>
-        <v>1.0733108742165884E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f>SUM(K7:K22)</f>
+        <v>7.5215819367999825E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8524,14 +7635,14 @@
       </c>
       <c r="J25">
         <f>SQRT(J24)</f>
-        <v>7.4769923811727243E-2</v>
+        <v>4.8775144299587646E-2</v>
       </c>
       <c r="K25">
         <f>SQRT(K24)</f>
-        <v>0.10360071786510885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.6727054237994164E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8542,7 +7653,7 @@
         <v>1.0000025473613601</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8553,7 +7664,7 @@
         <v>1.0000015391593871</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8564,7 +7675,7 @@
         <v>1.000000929986478</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8575,7 +7686,7 @@
         <v>1.0000005619137671</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8586,7 +7697,7 @@
         <v>1.000000339517928</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8597,7 +7708,7 @@
         <v>1.0000002051425501</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8608,7 +7719,7 @@
         <v>1.000000123950644</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8619,7 +7730,7 @@
         <v>1.0000000748931031</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8630,7 +7741,7 @@
         <v>1.0000000452516959</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8641,7 +7752,7 @@
         <v>1.000000027341851</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8652,7 +7763,7 @@
         <v>1.000000016520415</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8663,7 +7774,7 @@
         <v>1.000000009981918</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8674,7 +7785,7 @@
         <v>1.0000000060312459</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8685,7 +7796,7 @@
         <v>1.0000000036441821</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8696,7 +7807,7 @@
         <v>1.0000000022018769</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8707,7 +7818,7 @@
         <v>1.000000001330412</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8718,7 +7829,7 @@
         <v>1.0000000008038581</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8729,7 +7840,7 @@
         <v>1.000000000485705</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8740,7 +7851,7 @@
         <v>1.000000000293471</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8751,7 +7862,7 @@
         <v>1.0000000001773199</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8762,7 +7873,7 @@
         <v>1.0000000001071401</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8773,7 +7884,7 @@
         <v>1.000000000064736</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8784,7 +7895,7 @@
         <v>1.000000000039114</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8795,7 +7906,7 @@
         <v>1.000000000023634</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8806,7 +7917,7 @@
         <v>1.0000000000142799</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8817,7 +7928,7 @@
         <v>1.000000000008628</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8828,7 +7939,7 @@
         <v>1.0000000000052129</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8839,7 +7950,7 @@
         <v>1.0000000000031499</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8850,7 +7961,7 @@
         <v>1.0000000000019029</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8861,7 +7972,7 @@
         <v>1.00000000000115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8872,7 +7983,7 @@
         <v>1.000000000000695</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8883,7 +7994,7 @@
         <v>1.0000000000004201</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8894,7 +8005,7 @@
         <v>1.000000000000254</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8905,7 +8016,7 @@
         <v>1.000000000000153</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8916,7 +8027,7 @@
         <v>1.000000000000093</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8927,7 +8038,7 @@
         <v>1.000000000000056</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8938,7 +8049,7 @@
         <v>1.000000000000034</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8949,7 +8060,7 @@
         <v>1.00000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8960,7 +8071,7 @@
         <v>1.000000000000012</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8971,7 +8082,7 @@
         <v>1.000000000000008</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8982,7 +8093,7 @@
         <v>1.000000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8993,7 +8104,7 @@
         <v>1.0000000000000031</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9004,7 +8115,7 @@
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9015,7 +8126,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -9026,7 +8137,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -9037,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -9048,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -9059,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9070,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9081,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9092,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9103,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9114,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9125,7 +8236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9136,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9147,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9158,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9169,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9180,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9191,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9202,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9213,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9224,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9235,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9246,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9257,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9268,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9279,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9290,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9301,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9312,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9323,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9334,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9345,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9356,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9367,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9378,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9389,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9400,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9411,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9422,82 +8533,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9512,22 +8623,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAAE3EB-31E2-4B95-86C2-DF9BC9CC5789}">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9553,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -9590,7 +8701,7 @@
         <v>6.6607764733575773E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9627,7 +8738,7 @@
         <v>8.0791089880284644E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -9664,7 +8775,7 @@
         <v>1.4069850094017373E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -9701,7 +8812,7 @@
         <v>1.8447609181253345E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -9738,7 +8849,7 @@
         <v>4.3966524136524356E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -9775,7 +8886,7 @@
         <v>2.5903657239137158E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -9812,7 +8923,7 @@
         <v>3.7190708814997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -9849,7 +8960,7 @@
         <v>4.4001285431778577E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -9886,7 +8997,7 @@
         <v>2.7021624940262316E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9911,7 +9022,7 @@
         <v>5.1253898842222383E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9936,7 +9047,7 @@
         <v>1.6451081456843016E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9961,7 +9072,7 @@
         <v>6.6211784855391771E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9986,7 +9097,7 @@
         <v>8.7507789651289534E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10011,7 +9122,7 @@
         <v>3.4196761136810753E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10036,7 +9147,7 @@
         <v>2.8040098813455356E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10061,7 +9172,7 @@
         <v>1.9342761641743146E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10086,7 +9197,7 @@
         <v>2.6479292957942436E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10111,7 +9222,7 @@
         <v>7.4916118488748497E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10136,7 +9247,7 @@
         <v>5.9507084676046163E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10161,7 +9272,7 @@
         <v>1.8716152957518606E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10186,7 +9297,7 @@
         <v>1.8204609100032936E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10197,7 +9308,7 @@
         <v>1.0000027873129329</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10211,15 +9322,15 @@
         <v>9</v>
       </c>
       <c r="J24">
-        <f>SUM(J2:J22)</f>
-        <v>1.7019476842689094E-2</v>
+        <f>SUM(J7:J22)</f>
+        <v>6.4416375595225848E-4</v>
       </c>
       <c r="K24">
-        <f>SUM(K2:K22)</f>
-        <v>1.8669125670982931E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <f>SUM(K7:K22)</f>
+        <v>2.2938125842460926E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -10234,14 +9345,14 @@
       </c>
       <c r="J25">
         <f>SQRT(J24)</f>
-        <v>0.1304587170053772</v>
+        <v>2.5380381320071976E-2</v>
       </c>
       <c r="K25">
         <f>SQRT(K24)</f>
-        <v>0.1366350089507917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.789376352142409E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -10252,7 +9363,7 @@
         <v>1.000000490197078</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -10263,7 +9374,7 @@
         <v>1.000000274641216</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -10274,7 +9385,7 @@
         <v>1.0000001538723939</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -10285,7 +9396,7 @@
         <v>1.000000086209615</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -10296,7 +9407,7 @@
         <v>1.000000048300397</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -10307,7 +9418,7 @@
         <v>1.000000027061116</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -10318,7 +9429,7 @@
         <v>1.000000015161449</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -10329,7 +9440,7 @@
         <v>1.000000008494458</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -10340,7 +9451,7 @@
         <v>1.000000004759164</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -10351,7 +9462,7 @@
         <v>1.000000002666402</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -10362,7 +9473,7 @@
         <v>1.000000001493897</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -10373,7 +9484,7 @@
         <v>1.0000000008369809</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -10384,7 +9495,7 @@
         <v>1.0000000004689329</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -10395,7 +9506,7 @@
         <v>1.0000000002627281</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10406,7 +9517,7 @@
         <v>1.000000000147198</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10417,7 +9528,7 @@
         <v>1.00000000008247</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10428,7 +9539,7 @@
         <v>1.000000000046205</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10439,7 +9550,7 @@
         <v>1.0000000000258871</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10450,7 +9561,7 @@
         <v>1.000000000014504</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10461,7 +9572,7 @@
         <v>1.0000000000081259</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10472,7 +9583,7 @@
         <v>1.000000000004553</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10483,7 +9594,7 @@
         <v>1.0000000000025511</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10494,7 +9605,7 @@
         <v>1.0000000000014291</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10505,7 +9616,7 @@
         <v>1.0000000000008009</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10516,7 +9627,7 @@
         <v>1.000000000000449</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10527,7 +9638,7 @@
         <v>1.0000000000002509</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10538,7 +9649,7 @@
         <v>1.000000000000141</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10549,7 +9660,7 @@
         <v>1.000000000000079</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10560,7 +9671,7 @@
         <v>1.000000000000044</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10571,7 +9682,7 @@
         <v>1.0000000000000251</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10582,7 +9693,7 @@
         <v>1.000000000000014</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10593,7 +9704,7 @@
         <v>1.000000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10604,7 +9715,7 @@
         <v>1.000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10615,7 +9726,7 @@
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10626,7 +9737,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10637,7 +9748,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10648,7 +9759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10659,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10670,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10681,7 +9792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10692,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10703,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10714,7 +9825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10725,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10736,7 +9847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10747,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10758,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10769,7 +9880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10780,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10791,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10802,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10813,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10824,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10835,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10846,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10857,7 +9968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10868,7 +9979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10879,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10890,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10901,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10912,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10923,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10934,7 +10045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10945,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10956,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10967,7 +10078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10978,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10989,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11000,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11011,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11022,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11033,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11044,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11055,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -11066,7 +10177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -11077,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11088,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11099,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11110,7 +10221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11121,7 +10232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11132,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11143,7 +10254,7 @@
         <v>1.0000000000000251</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11154,7 +10265,7 @@
         <v>1.0000000000000191</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11165,7 +10276,7 @@
         <v>1.000000000000014</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11176,7 +10287,7 @@
         <v>1.00000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11187,7 +10298,7 @@
         <v>1.000000000000008</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11198,7 +10309,7 @@
         <v>1.000000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11209,7 +10320,7 @@
         <v>1.000000000000004</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11220,7 +10331,7 @@
         <v>1.0000000000000031</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11231,7 +10342,7 @@
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -11242,7 +10353,7 @@
         <v>1.000000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11253,7 +10364,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11264,7 +10375,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11275,7 +10386,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11286,7 +10397,7 @@
         <v>1.0000000000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11297,7 +10408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>

--- a/Analisis extrapolación.xlsx
+++ b/Analisis extrapolación.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5D526A-E883-4E2B-B02E-98E9123A5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809BCEE-2394-42FC-BE7B-AFF15E6B1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,7 +1524,7 @@
         <c:axId val="992696448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.02"/>
+          <c:max val="1.2"/>
           <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4279,7 +4279,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>RC Lesiones a 3° transportados, Factor de desarrollo individual</a:t>
+              <a:t>RC Lesiones a 3° no transportados, Factor de desarrollo individual</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8514,7 +8514,7 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8588,11 +8588,11 @@
         <v>1.1559722060253399</v>
       </c>
       <c r="K2">
-        <f>POWER(B2-D2,2)</f>
+        <f t="shared" ref="K2:K22" si="0">POWER(B2-D2,2)</f>
         <v>2.6558660610914546E-4</v>
       </c>
       <c r="L2">
-        <f>POWER(C2-F2,2)</f>
+        <f t="shared" ref="L2:L22" si="1">POWER(C2-F2,2)</f>
         <v>2.6558660610914546E-4</v>
       </c>
     </row>
@@ -8625,11 +8625,11 @@
         <v>0.99959116528983794</v>
       </c>
       <c r="K3">
-        <f>POWER(B3-D3,2)</f>
+        <f t="shared" si="0"/>
         <v>1.2718984599988008E-3</v>
       </c>
       <c r="L3">
-        <f>POWER(C3-F3,2)</f>
+        <f t="shared" si="1"/>
         <v>1.2718984599988008E-3</v>
       </c>
     </row>
@@ -8662,11 +8662,11 @@
         <v>1.0253573147984529</v>
       </c>
       <c r="K4">
-        <f>POWER(B4-D4,2)</f>
+        <f t="shared" si="0"/>
         <v>1.9438111014971843E-4</v>
       </c>
       <c r="L4">
-        <f>POWER(C4-F4,2)</f>
+        <f t="shared" si="1"/>
         <v>1.9438111014971843E-4</v>
       </c>
     </row>
@@ -8699,11 +8699,11 @@
         <v>1.020761757481045</v>
       </c>
       <c r="K5">
-        <f>POWER(B5-D5,2)</f>
+        <f t="shared" si="0"/>
         <v>2.0383387632102331E-5</v>
       </c>
       <c r="L5">
-        <f>POWER(C5-F5,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0383387632102331E-5</v>
       </c>
     </row>
@@ -8736,11 +8736,11 @@
         <v>1.0169502289404371</v>
       </c>
       <c r="K6">
-        <f>POWER(B6-D6,2)</f>
+        <f t="shared" si="0"/>
         <v>4.1919629902920422E-5</v>
       </c>
       <c r="L6">
-        <f>POWER(C6-F6,2)</f>
+        <f t="shared" si="1"/>
         <v>4.1919629902920422E-5</v>
       </c>
     </row>
@@ -8776,11 +8776,11 @@
         <v>1.0068137944155719</v>
       </c>
       <c r="K7">
-        <f>POWER(B7-D7,2)</f>
+        <f t="shared" si="0"/>
         <v>6.1066591208306799E-5</v>
       </c>
       <c r="L7">
-        <f>POWER(C7-F7,2)</f>
+        <f t="shared" si="1"/>
         <v>1.0590825054618728E-4</v>
       </c>
     </row>
@@ -8816,11 +8816,11 @@
         <v>1.0073822823320919</v>
       </c>
       <c r="K8">
-        <f>POWER(B8-D8,2)</f>
+        <f t="shared" si="0"/>
         <v>1.2603941448765723E-5</v>
       </c>
       <c r="L8">
-        <f>POWER(C8-F8,2)</f>
+        <f t="shared" si="1"/>
         <v>3.9201422419169684E-5</v>
       </c>
     </row>
@@ -8856,11 +8856,11 @@
         <v>1.0047613265483391</v>
       </c>
       <c r="K9">
-        <f>POWER(B9-D9,2)</f>
+        <f t="shared" si="0"/>
         <v>9.3465228809102819E-6</v>
       </c>
       <c r="L9">
-        <f>POWER(C9-F9,2)</f>
+        <f t="shared" si="1"/>
         <v>3.1801853804437974E-5</v>
       </c>
     </row>
@@ -8896,11 +8896,11 @@
         <v>1.0031557791556129</v>
       </c>
       <c r="K10">
-        <f>POWER(B10-D10,2)</f>
+        <f t="shared" si="0"/>
         <v>1.6135236137541791E-11</v>
       </c>
       <c r="L10">
-        <f>POWER(C10-F10,2)</f>
+        <f t="shared" si="1"/>
         <v>5.4126622624067448E-6</v>
       </c>
     </row>
@@ -8924,11 +8924,11 @@
         <v>1.0001993347396649</v>
       </c>
       <c r="K11">
-        <f>POWER(B11-D11,2)</f>
+        <f t="shared" si="0"/>
         <v>3.7797291415269571E-5</v>
       </c>
       <c r="L11">
-        <f>POWER(C11-F11,2)</f>
+        <f t="shared" si="1"/>
         <v>6.7015060599558406E-5</v>
       </c>
     </row>
@@ -8952,11 +8952,11 @@
         <v>1.0000984350984881</v>
       </c>
       <c r="K12">
-        <f>POWER(B12-D12,2)</f>
+        <f t="shared" si="0"/>
         <v>2.1690040304655462E-6</v>
       </c>
       <c r="L12">
-        <f>POWER(C12-F12,2)</f>
+        <f t="shared" si="1"/>
         <v>1.05360928259291E-5</v>
       </c>
     </row>
@@ -8980,11 +8980,11 @@
         <v>1.000048609031374</v>
       </c>
       <c r="K13">
-        <f>POWER(B13-D13,2)</f>
+        <f t="shared" si="0"/>
         <v>5.4385827159449195E-6</v>
       </c>
       <c r="L13">
-        <f>POWER(C13-F13,2)</f>
+        <f t="shared" si="1"/>
         <v>6.251984448285143E-7</v>
       </c>
     </row>
@@ -9008,11 +9008,11 @@
         <v>1.0000240040185611</v>
       </c>
       <c r="K14">
-        <f>POWER(B14-D14,2)</f>
+        <f t="shared" si="0"/>
         <v>8.7118260392499563E-6</v>
       </c>
       <c r="L14">
-        <f>POWER(C14-F14,2)</f>
+        <f t="shared" si="1"/>
         <v>1.8456267677221274E-5</v>
       </c>
     </row>
@@ -9036,11 +9036,11 @@
         <v>1.000011853618366</v>
       </c>
       <c r="K15">
-        <f>POWER(B15-D15,2)</f>
+        <f t="shared" si="0"/>
         <v>7.9492191910746897E-8</v>
       </c>
       <c r="L15">
-        <f>POWER(C15-F15,2)</f>
+        <f t="shared" si="1"/>
         <v>8.0503896515227526E-7</v>
       </c>
     </row>
@@ -9064,11 +9064,11 @@
         <v>1.000005853531067</v>
       </c>
       <c r="K16">
-        <f>POWER(B16-D16,2)</f>
+        <f t="shared" si="0"/>
         <v>1.1498923203577151E-5</v>
       </c>
       <c r="L16">
-        <f>POWER(C16-F16,2)</f>
+        <f t="shared" si="1"/>
         <v>1.9640183709192645E-5</v>
       </c>
     </row>
@@ -9092,11 +9092,11 @@
         <v>1.0000028905794749</v>
       </c>
       <c r="K17">
-        <f>POWER(B17-D17,2)</f>
+        <f t="shared" si="0"/>
         <v>5.8820931248170937E-7</v>
       </c>
       <c r="L17">
-        <f>POWER(C17-F17,2)</f>
+        <f t="shared" si="1"/>
         <v>2.8608225402741581E-6</v>
       </c>
     </row>
@@ -9120,11 +9120,11 @@
         <v>1.000001427420407</v>
       </c>
       <c r="K18">
-        <f>POWER(B18-D18,2)</f>
+        <f t="shared" si="0"/>
         <v>1.0596869259685709E-7</v>
       </c>
       <c r="L18">
-        <f>POWER(C18-F18,2)</f>
+        <f t="shared" si="1"/>
         <v>2.5078452509974986E-7</v>
       </c>
     </row>
@@ -9148,11 +9148,11 @@
         <v>1.0000007048860049</v>
       </c>
       <c r="K19">
-        <f>POWER(B19-D19,2)</f>
+        <f t="shared" si="0"/>
         <v>1.0104692512805484E-7</v>
       </c>
       <c r="L19">
-        <f>POWER(C19-F19,2)</f>
+        <f t="shared" si="1"/>
         <v>1.8068376166428319E-7</v>
       </c>
     </row>
@@ -9176,11 +9176,11 @@
         <v>1.000000348085454</v>
       </c>
       <c r="K20">
-        <f>POWER(B20-D20,2)</f>
+        <f t="shared" si="0"/>
         <v>1.4937878535132994E-7</v>
       </c>
       <c r="L20">
-        <f>POWER(C20-F20,2)</f>
+        <f t="shared" si="1"/>
         <v>8.1308387585137921E-8</v>
       </c>
     </row>
@@ -9204,11 +9204,11 @@
         <v>1.0000001718908911</v>
       </c>
       <c r="K21">
-        <f>POWER(B21-D21,2)</f>
+        <f t="shared" si="0"/>
         <v>2.9948778057311565E-6</v>
       </c>
       <c r="L21">
-        <f>POWER(C21-F21,2)</f>
+        <f t="shared" si="1"/>
         <v>1.2551740722488897E-6</v>
       </c>
     </row>
@@ -9232,11 +9232,11 @@
         <v>1.0000000848828301</v>
       </c>
       <c r="K22">
-        <f>POWER(B22-D22,2)</f>
+        <f t="shared" si="0"/>
         <v>1.9188674890013642E-7</v>
       </c>
       <c r="L22">
-        <f>POWER(C22-F22,2)</f>
+        <f t="shared" si="1"/>
         <v>1.4143093929138413E-8</v>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10602,11 +10602,11 @@
         <v>1.668548223800395</v>
       </c>
       <c r="K2">
-        <f>POWER(B2-D2,2)</f>
+        <f t="shared" ref="K2:K22" si="0">POWER(B2-D2,2)</f>
         <v>2.1182610294789617E-4</v>
       </c>
       <c r="L2">
-        <f>POWER(C2-F2,2)</f>
+        <f t="shared" ref="L2:L22" si="1">POWER(C2-F2,2)</f>
         <v>2.1182610294789617E-4</v>
       </c>
     </row>
@@ -10639,11 +10639,11 @@
         <v>1.2735402547390839</v>
       </c>
       <c r="K3">
-        <f>POWER(B3-D3,2)</f>
+        <f t="shared" si="0"/>
         <v>2.0172791238816843E-3</v>
       </c>
       <c r="L3">
-        <f>POWER(C3-F3,2)</f>
+        <f t="shared" si="1"/>
         <v>2.0172791238816843E-3</v>
       </c>
     </row>
@@ -10676,11 +10676,11 @@
         <v>1.179312119208709</v>
       </c>
       <c r="K4">
-        <f>POWER(B4-D4,2)</f>
+        <f t="shared" si="0"/>
         <v>1.2425133856325106E-4</v>
       </c>
       <c r="L4">
-        <f>POWER(C4-F4,2)</f>
+        <f t="shared" si="1"/>
         <v>1.2425133856325106E-4</v>
       </c>
     </row>
@@ -10713,11 +10713,11 @@
         <v>1.1045988283147921</v>
       </c>
       <c r="K5">
-        <f>POWER(B5-D5,2)</f>
+        <f t="shared" si="0"/>
         <v>5.8386345567139819E-4</v>
       </c>
       <c r="L5">
-        <f>POWER(C5-F5,2)</f>
+        <f t="shared" si="1"/>
         <v>5.8386345567139819E-4</v>
       </c>
     </row>
@@ -10750,11 +10750,11 @@
         <v>1.0846229919525989</v>
       </c>
       <c r="K6">
-        <f>POWER(B6-D6,2)</f>
+        <f t="shared" si="0"/>
         <v>2.7430678430166976E-4</v>
       </c>
       <c r="L6">
-        <f>POWER(C6-F6,2)</f>
+        <f t="shared" si="1"/>
         <v>2.7430678430166976E-4</v>
       </c>
     </row>
@@ -10790,11 +10790,11 @@
         <v>1.060609712009257</v>
       </c>
       <c r="K7">
-        <f>POWER(B7-D7,2)</f>
+        <f t="shared" si="0"/>
         <v>6.4441130925433792E-7</v>
       </c>
       <c r="L7">
-        <f>POWER(C7-F7,2)</f>
+        <f t="shared" si="1"/>
         <v>3.4829826679781342E-4</v>
       </c>
     </row>
@@ -10830,11 +10830,11 @@
         <v>1.0329693504605431</v>
       </c>
       <c r="K8">
-        <f>POWER(B8-D8,2)</f>
+        <f t="shared" si="0"/>
         <v>1.6073942345404944E-6</v>
       </c>
       <c r="L8">
-        <f>POWER(C8-F8,2)</f>
+        <f t="shared" si="1"/>
         <v>5.0614687806103075E-4</v>
       </c>
     </row>
@@ -10870,11 +10870,11 @@
         <v>1.033125832372237</v>
       </c>
       <c r="K9">
-        <f>POWER(B9-D9,2)</f>
+        <f t="shared" si="0"/>
         <v>5.4471891620372451E-5</v>
       </c>
       <c r="L9">
-        <f>POWER(C9-F9,2)</f>
+        <f t="shared" si="1"/>
         <v>3.1765644933125795E-4</v>
       </c>
     </row>
@@ -10910,11 +10910,11 @@
         <v>1.010576254533655</v>
       </c>
       <c r="K10">
-        <f>POWER(B10-D10,2)</f>
+        <f t="shared" si="0"/>
         <v>5.0116001573728987E-5</v>
       </c>
       <c r="L10">
-        <f>POWER(C10-F10,2)</f>
+        <f t="shared" si="1"/>
         <v>3.2166543175800256E-4</v>
       </c>
     </row>
@@ -10938,11 +10938,11 @@
         <v>1.0048774741717741</v>
       </c>
       <c r="K11">
-        <f>POWER(B11-D11,2)</f>
+        <f t="shared" si="0"/>
         <v>2.3102845151947365E-5</v>
       </c>
       <c r="L11">
-        <f>POWER(C11-F11,2)</f>
+        <f t="shared" si="1"/>
         <v>8.2823633460340888E-4</v>
       </c>
     </row>
@@ -10966,11 +10966,11 @@
         <v>1.002947053478916</v>
       </c>
       <c r="K12">
-        <f>POWER(B12-D12,2)</f>
+        <f t="shared" si="0"/>
         <v>1.2744412663581103E-3</v>
       </c>
       <c r="L12">
-        <f>POWER(C12-F12,2)</f>
+        <f t="shared" si="1"/>
         <v>3.3917903961416794E-3</v>
       </c>
     </row>
@@ -10994,11 +10994,11 @@
         <v>1.001780660215045</v>
       </c>
       <c r="K13">
-        <f>POWER(B13-D13,2)</f>
+        <f t="shared" si="0"/>
         <v>2.3149791746373091E-4</v>
       </c>
       <c r="L13">
-        <f>POWER(C13-F13,2)</f>
+        <f t="shared" si="1"/>
         <v>3.3226839507180173E-5</v>
       </c>
     </row>
@@ -11022,11 +11022,11 @@
         <v>1.0010759054167599</v>
       </c>
       <c r="K14">
-        <f>POWER(B14-D14,2)</f>
+        <f t="shared" si="0"/>
         <v>5.8478568910686789E-7</v>
       </c>
       <c r="L14">
-        <f>POWER(C14-F14,2)</f>
+        <f t="shared" si="1"/>
         <v>4.0798934835907503E-4</v>
       </c>
     </row>
@@ -11050,11 +11050,11 @@
         <v>1.0006500804903891</v>
       </c>
       <c r="K15">
-        <f>POWER(B15-D15,2)</f>
+        <f t="shared" si="0"/>
         <v>6.3716559668145569E-6</v>
       </c>
       <c r="L15">
-        <f>POWER(C15-F15,2)</f>
+        <f t="shared" si="1"/>
         <v>2.3874062340114969E-4</v>
       </c>
     </row>
@@ -11078,11 +11078,11 @@
         <v>1.0003927897725959</v>
       </c>
       <c r="K16">
-        <f>POWER(B16-D16,2)</f>
+        <f t="shared" si="0"/>
         <v>1.7835769264098247E-4</v>
       </c>
       <c r="L16">
-        <f>POWER(C16-F16,2)</f>
+        <f t="shared" si="1"/>
         <v>8.9936511000061068E-4</v>
       </c>
     </row>
@@ -11106,11 +11106,11 @@
         <v>1.0002373303117651</v>
       </c>
       <c r="K17">
-        <f>POWER(B17-D17,2)</f>
+        <f t="shared" si="0"/>
         <v>2.1572892135924637E-5</v>
       </c>
       <c r="L17">
-        <f>POWER(C17-F17,2)</f>
+        <f t="shared" si="1"/>
         <v>1.1608699312070515E-4</v>
       </c>
     </row>
@@ -11134,11 +11134,11 @@
         <v>1.0001433990414521</v>
       </c>
       <c r="K18">
-        <f>POWER(B18-D18,2)</f>
+        <f t="shared" si="0"/>
         <v>1.1383041462149019E-4</v>
       </c>
       <c r="L18">
-        <f>POWER(C18-F18,2)</f>
+        <f t="shared" si="1"/>
         <v>1.3372639414461234E-5</v>
       </c>
     </row>
@@ -11162,11 +11162,11 @@
         <v>1.000086644158247</v>
       </c>
       <c r="K19">
-        <f>POWER(B19-D19,2)</f>
+        <f t="shared" si="0"/>
         <v>9.0397721381124495E-5</v>
       </c>
       <c r="L19">
-        <f>POWER(C19-F19,2)</f>
+        <f t="shared" si="1"/>
         <v>1.473344587746152E-5</v>
       </c>
     </row>
@@ -11190,11 +11190,11 @@
         <v>1.0000523518852169</v>
       </c>
       <c r="K20">
-        <f>POWER(B20-D20,2)</f>
+        <f t="shared" si="0"/>
         <v>1.3315245229339702E-5</v>
       </c>
       <c r="L20">
-        <f>POWER(C20-F20,2)</f>
+        <f t="shared" si="1"/>
         <v>7.778188148671597E-5</v>
       </c>
     </row>
@@ -11218,11 +11218,11 @@
         <v>1.0000316319061919</v>
       </c>
       <c r="K21">
-        <f>POWER(B21-D21,2)</f>
+        <f t="shared" si="0"/>
         <v>2.0227537196352302E-4</v>
       </c>
       <c r="L21">
-        <f>POWER(C21-F21,2)</f>
+        <f t="shared" si="1"/>
         <v>6.4576491204787084E-6</v>
       </c>
     </row>
@@ -11246,11 +11246,11 @@
         <v>1.000019112539791</v>
       </c>
       <c r="K22">
-        <f>POWER(B22-D22,2)</f>
+        <f t="shared" si="0"/>
         <v>1.1642719410560683E-4</v>
       </c>
       <c r="L22">
-        <f>POWER(C22-F22,2)</f>
+        <f t="shared" si="1"/>
         <v>3.3649818954190128E-8</v>
       </c>
     </row>
@@ -12542,8 +12542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAAE3EB-31E2-4B95-86C2-DF9BC9CC5789}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12614,7 +12614,7 @@
         <v>1.6011709612041889</v>
       </c>
       <c r="K2">
-        <f>POWER(E2-B2,2)</f>
+        <f t="shared" ref="K2:K22" si="0">POWER(E2-B2,2)</f>
         <v>6.6607764733575773E-3</v>
       </c>
       <c r="L2">
@@ -12651,11 +12651,11 @@
         <v>1.225308818156011</v>
       </c>
       <c r="K3">
-        <f>POWER(E3-B3,2)</f>
+        <f t="shared" si="0"/>
         <v>8.0791089880284644E-3</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L22" si="0">POWER(F3-D3,2)</f>
+        <f t="shared" ref="L3:L22" si="1">POWER(F3-D3,2)</f>
         <v>8.0791089880284644E-3</v>
       </c>
     </row>
@@ -12688,11 +12688,11 @@
         <v>1.1491316595469441</v>
       </c>
       <c r="K4">
-        <f>POWER(E4-B4,2)</f>
+        <f t="shared" si="0"/>
         <v>1.4069850094017373E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4069850094017373E-3</v>
       </c>
     </row>
@@ -12725,11 +12725,11 @@
         <v>1.0966806124729289</v>
       </c>
       <c r="K5">
-        <f>POWER(E5-B5,2)</f>
+        <f t="shared" si="0"/>
         <v>1.8447609181253345E-4</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8447609181253345E-4</v>
       </c>
     </row>
@@ -12762,11 +12762,11 @@
         <v>1.068923981780709</v>
       </c>
       <c r="K6">
-        <f>POWER(E6-B6,2)</f>
+        <f t="shared" si="0"/>
         <v>4.3966524136524356E-5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3966524136524356E-5</v>
       </c>
     </row>
@@ -12802,11 +12802,11 @@
         <v>1.04518920163101</v>
       </c>
       <c r="K7">
-        <f>POWER(E7-B7,2)</f>
+        <f t="shared" si="0"/>
         <v>1.4879373291156256E-5</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5903657239137158E-4</v>
       </c>
     </row>
@@ -12842,11 +12842,11 @@
         <v>1.034791017352789</v>
       </c>
       <c r="K8">
-        <f>POWER(E8-B8,2)</f>
+        <f t="shared" si="0"/>
         <v>1.3381960380278585E-5</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7190708814997E-4</v>
       </c>
     </row>
@@ -12882,11 +12882,11 @@
         <v>1.0301775421964341</v>
       </c>
       <c r="K9">
-        <f>POWER(E9-B9,2)</f>
+        <f t="shared" si="0"/>
         <v>4.976076852065933E-6</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4001285431778577E-4</v>
       </c>
     </row>
@@ -12922,11 +12922,11 @@
         <v>1.011480367824183</v>
       </c>
       <c r="K10">
-        <f>POWER(E10-B10,2)</f>
+        <f t="shared" si="0"/>
         <v>3.2499396335777248E-5</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7021624940262316E-4</v>
       </c>
     </row>
@@ -12950,11 +12950,11 @@
         <v>1.025553030272021</v>
       </c>
       <c r="K11">
-        <f>POWER(E11-B11,2)</f>
+        <f t="shared" si="0"/>
         <v>4.512877127869942E-6</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1253898842222383E-4</v>
       </c>
     </row>
@@ -12978,11 +12978,11 @@
         <v>1.0144586302563141</v>
       </c>
       <c r="K12">
-        <f>POWER(E12-B12,2)</f>
+        <f t="shared" si="0"/>
         <v>3.500366851775756E-5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6451081456843016E-4</v>
       </c>
     </row>
@@ -13006,11 +13006,11 @@
         <v>1.009051672051964</v>
       </c>
       <c r="K13">
-        <f>POWER(E13-B13,2)</f>
+        <f t="shared" si="0"/>
         <v>7.8933921493027295E-5</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6211784855391771E-5</v>
       </c>
     </row>
@@ -13034,11 +13034,11 @@
         <v>1.009866985370208</v>
       </c>
       <c r="K14">
-        <f>POWER(E14-B14,2)</f>
+        <f t="shared" si="0"/>
         <v>3.7018302895728908E-5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7507789651289534E-5</v>
       </c>
     </row>
@@ -13062,11 +13062,11 @@
         <v>1.0061348947712481</v>
       </c>
       <c r="K15">
-        <f>POWER(E15-B15,2)</f>
+        <f t="shared" si="0"/>
         <v>6.6830864505313577E-5</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4196761136810753E-5</v>
       </c>
     </row>
@@ -13090,11 +13090,11 @@
         <v>1.0054561401344431</v>
       </c>
       <c r="K16">
-        <f>POWER(E16-B16,2)</f>
+        <f t="shared" si="0"/>
         <v>5.5918867612172775E-5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8040098813455356E-5</v>
       </c>
     </row>
@@ -13118,11 +13118,11 @@
         <v>1.0044881595328099</v>
       </c>
       <c r="K17">
-        <f>POWER(E17-B17,2)</f>
+        <f t="shared" si="0"/>
         <v>5.2981404542420938E-5</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9342761641743146E-5</v>
       </c>
     </row>
@@ -13146,11 +13146,11 @@
         <v>1.0051962940571011</v>
       </c>
       <c r="K18">
-        <f>POWER(E18-B18,2)</f>
+        <f t="shared" si="0"/>
         <v>3.1030791188212181E-5</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6479292957942436E-5</v>
       </c>
     </row>
@@ -13174,11 +13174,11 @@
         <v>1.002765369127363</v>
       </c>
       <c r="K19">
-        <f>POWER(E19-B19,2)</f>
+        <f t="shared" si="0"/>
         <v>5.0929039319831929E-5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4916118488748497E-6</v>
       </c>
     </row>
@@ -13202,11 +13202,11 @@
         <v>1.002455256359907</v>
       </c>
       <c r="K20">
-        <f>POWER(E20-B20,2)</f>
+        <f t="shared" si="0"/>
         <v>4.4788319521841215E-5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9507084676046163E-6</v>
       </c>
     </row>
@@ -13230,11 +13230,11 @@
         <v>1.0004415013411201</v>
       </c>
       <c r="K21">
-        <f>POWER(E21-B21,2)</f>
+        <f t="shared" si="0"/>
         <v>6.4703641512438881E-5</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8716152957518606E-7</v>
       </c>
     </row>
@@ -13258,11 +13258,11 @@
         <v>1.0004316435692859</v>
       </c>
       <c r="K22">
-        <f>POWER(E22-B22,2)</f>
+        <f t="shared" si="0"/>
         <v>5.5775250856365195E-5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8204609100032936E-7</v>
       </c>
     </row>

--- a/Analisis extrapolación.xlsx
+++ b/Analisis extrapolación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Python Script\Github\IBNR-NIIF-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809BCEE-2394-42FC-BE7B-AFF15E6B1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE926036-53E6-4957-9E65-522FF81057F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC Cosas" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Inverse Power_2024</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3411,111 +3414,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'RC No Transportados'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Exponential_2024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RC No Transportados'!$D$2:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>1.6602095656374369</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.253708667674079</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1491492723492021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.085878145451205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0626445243659079</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0295709851981729</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0165676453686661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0092823039618859</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0052005680302529</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.002913706332861</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.001632453329091</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0009146096302179</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0005124255381641</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0002870950878791</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.00016084988617</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.000090118873409</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0000504906253771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.000028288228143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.000015848958999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.0000088796477491</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.000004974973066</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F838-4F96-A7BB-43D5300BAA56}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -3846,12 +3744,131 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'RC No Transportados'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Exponential_2024</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'RC No Transportados'!$D$2:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="21"/>
+                      <c:pt idx="0">
+                        <c:v>1.6602095656374369</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.253708667674079</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1491492723492021</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.085878145451205</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0626445243659079</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0295709851981729</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0165676453686661</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0092823039618859</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.0052005680302529</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.002913706332861</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.001632453329091</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.0009146096302179</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.0005124255381641</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.0002870950878791</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.00016084988617</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.000090118873409</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.0000504906253771</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.000028288228143</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.000015848958999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.0000088796477491</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.000004974973066</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-F838-4F96-A7BB-43D5300BAA56}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'RC No Transportados'!$F$1</c15:sqref>
                         </c15:formulaRef>
@@ -3879,8 +3896,8 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'RC No Transportados'!$F$2:$F$22</c15:sqref>
                         </c15:formulaRef>
@@ -3914,7 +3931,7 @@
                         <c:v>1.0302587873258291</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1.021638823698134</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>1.025553030272021</c:v>
@@ -3956,7 +3973,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-F838-4F96-A7BB-43D5300BAA56}"/>
                   </c:ext>
@@ -8513,8 +8530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10528,8 +10545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12084E6B-ED10-419E-8AF8-76B61C618EAB}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12542,7 +12559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAAE3EB-31E2-4B95-86C2-DF9BC9CC5789}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -12906,8 +12923,8 @@
       <c r="E10">
         <v>1.021638823698134</v>
       </c>
-      <c r="F10">
-        <v>1.021638823698134</v>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
       <c r="G10">
         <v>1.0193352739837711</v>
@@ -12925,9 +12942,9 @@
         <f t="shared" si="0"/>
         <v>3.2499396335777248E-5</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="e">
         <f t="shared" si="1"/>
-        <v>2.7021624940262316E-4</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -13300,9 +13317,9 @@
         <f>SUM(K7:K22)</f>
         <v>6.4416375595225848E-4</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="e">
         <f>SUM(L7:L22)</f>
-        <v>2.2938125842460926E-3</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -13325,9 +13342,9 @@
         <f>SQRT(K24)</f>
         <v>2.5380381320071976E-2</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="e">
         <f>SQRT(L24)</f>
-        <v>4.789376352142409E-2</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
